--- a/Chocolate Sales Dashboard.xlsx
+++ b/Chocolate Sales Dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b5ba4b9d920f1ef/Dokumente/Data Analytics Training/Projects/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="812" documentId="8_{9BAE44CE-DA9E-4678-80C3-70786C207352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{244A4F08-99A3-4296-8834-3B42C169410B}"/>
+  <xr:revisionPtr revIDLastSave="842" documentId="8_{9BAE44CE-DA9E-4678-80C3-70786C207352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5168144-AC52-4E24-AC63-3A77BD644475}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{E646D2C9-1E2D-442D-ADFC-4510C1E12B99}"/>
   </bookViews>
@@ -427,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +607,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -781,7 +787,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -893,7 +899,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Country Outlook!PivotTable1</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Country Outlook!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1358,7 +1364,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Monthly sales!PivotTable7</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Monthly sales!PivotTable7</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -1887,7 +1893,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Products!PivotTable1</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Products!PivotTable1</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -2503,7 +2509,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Products!PivotTable3</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Products!PivotTable3</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -3109,7 +3115,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Country Outlook!PivotTable2</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Country Outlook!PivotTable2</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3526,7 +3532,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Products!PivotTable1</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Products!PivotTable1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -4020,7 +4026,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Products!PivotTable3</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Products!PivotTable3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -4514,7 +4520,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Monthly sales!PivotTable6</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Monthly sales!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4926,7 +4932,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Monthly sales!PivotTable7</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Monthly sales!PivotTable7</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -5338,7 +5344,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Country Outlook!PivotTable1</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Country Outlook!PivotTable1</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -5922,7 +5928,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Country Outlook!PivotTable2</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Country Outlook!PivotTable2</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -6450,7 +6456,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Chocolate Sales Data.xlsx]Monthly sales!PivotTable6</c:name>
+    <c:name>[Chocolate Sales Dashboard.xlsx]Monthly sales!PivotTable6</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -13787,7 +13793,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -13810,8 +13816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="0"/>
-          <a:ext cx="11490960" cy="670560"/>
+          <a:off x="53340" y="0"/>
+          <a:ext cx="11445240" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -13922,7 +13928,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
@@ -13930,7 +13936,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13960,15 +13966,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14044,7 +14050,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14076,13 +14082,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
+      <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -14154,13 +14160,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>160019</xdr:rowOff>
+      <xdr:rowOff>129541</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -14230,15 +14236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14268,15 +14274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24644,6 +24650,201 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4552F33B-4BC4-49D2-AF40-85162A268581}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Product">
+  <location ref="J3:K26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="23">
+        <item x="6"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Total Boxes Shipped" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="5">
+            <x v="0"/>
+            <x v="7"/>
+            <x v="10"/>
+            <x v="19"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9553B615-C336-4CF2-8AAB-91390CB0AFBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Product">
   <location ref="B3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -24771,7 +24972,7 @@
     <dataField name="Sales" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -24786,201 +24987,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4552F33B-4BC4-49D2-AF40-85162A268581}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Product">
-  <location ref="J3:K26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="23">
-        <item x="6"/>
-        <item x="21"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="18"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="23">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Total Boxes Shipped" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="5">
-            <x v="0"/>
-            <x v="7"/>
-            <x v="10"/>
-            <x v="19"/>
-            <x v="20"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -25529,7 +25535,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Country" xr10:uid="{8E687F4F-5C3D-4476-A23A-4225F7856476}" cache="Slicer_Country" caption="Country" startItem="1" rowHeight="247650"/>
-  <slicer name="Product" xr10:uid="{3E1E42BC-148A-4E58-98F2-022557933344}" cache="Slicer_Product" caption="Product" rowHeight="247650"/>
+  <slicer name="Product" xr10:uid="{3E1E42BC-148A-4E58-98F2-022557933344}" cache="Slicer_Product" caption="Product" startItem="1" rowHeight="247650"/>
 </slicers>
 </file>
 
@@ -26603,7 +26609,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27154,7 +27160,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -27175,7 +27181,7 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="7.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -27196,7 +27202,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="6.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -27217,7 +27223,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -27238,7 +27244,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -27259,7 +27265,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -27280,7 +27286,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -27301,7 +27307,7 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -27322,7 +27328,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -27343,7 +27349,7 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -27364,7 +27370,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
